--- a/Project MVP and Scope.xlsx
+++ b/Project MVP and Scope.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madsouza\Desktop\Professional Learning\My Projects\Salon-Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFC1065-0F2A-4C73-8F95-4B275F864ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10652D-BED6-4115-AA63-55702C740C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="0" windowWidth="19488" windowHeight="12360" activeTab="1" xr2:uid="{BAA31C38-530F-46E6-A303-4877334C1151}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
-    <sheet name="DB Model" sheetId="1" r:id="rId2"/>
+    <sheet name="Long Term DB Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>Person Class</t>
   </si>
@@ -93,9 +93,6 @@
     <t>ServiceSummary</t>
   </si>
   <si>
-    <t>DiscountPercentage</t>
-  </si>
-  <si>
     <t>OriginYear</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>SalonBranchName</t>
-  </si>
-  <si>
     <t>Reviews</t>
   </si>
   <si>
@@ -310,6 +304,18 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>SalonName</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>salary</t>
   </si>
 </sst>
 </file>
@@ -333,12 +339,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,9 +365,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,94 +697,94 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -778,37 +792,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAEB19A-7FDF-4F2F-BA0B-82BA50E1A54C}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,95 +850,107 @@
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -935,16 +961,19 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -953,15 +982,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -970,12 +999,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -984,106 +1013,103 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>49</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>38</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1091,64 +1117,64 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
